--- a/xxt.xlsx
+++ b/xxt.xlsx
@@ -379,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -413,6 +413,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>31</v>
+      </c>
+      <c r="F2">
+        <v>84</v>
+      </c>
+      <c r="G2">
+        <v>35</v>
+      </c>
+      <c r="H2">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
